--- a/exam_template.xlsx
+++ b/exam_template.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Expected Return" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Q1.Expected Return" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Empty page" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Empty space" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="GradiendDescendMethod" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Q5.GradiendDescendMethod" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -881,11 +881,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="32" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="32" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="32" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="32" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1072,9 +1072,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>365400</xdr:colOff>
+      <xdr:colOff>365040</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1084,7 +1084,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="49320" y="39240"/>
-          <a:ext cx="7687800" cy="738360"/>
+          <a:ext cx="7687440" cy="738000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1174,9 +1174,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>157680</xdr:colOff>
+      <xdr:colOff>157320</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>136800</xdr:rowOff>
+      <xdr:rowOff>136440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1186,7 +1186,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="528840" y="123120"/>
-          <a:ext cx="4852440" cy="592920"/>
+          <a:ext cx="4852080" cy="592560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1248,9 +1248,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>226440</xdr:colOff>
+      <xdr:colOff>226080</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
+      <xdr:rowOff>63000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1260,7 +1260,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250920" y="81720"/>
-          <a:ext cx="4852440" cy="306720"/>
+          <a:ext cx="4852080" cy="306360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1322,9 +1322,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714960</xdr:colOff>
+      <xdr:colOff>714600</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:rowOff>43200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1334,7 +1334,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="107640" y="140040"/>
-          <a:ext cx="3045600" cy="1305720"/>
+          <a:ext cx="3045240" cy="1305360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1375,9 +1375,6 @@
             <a:t>Question 5.  Determine the minimum point and minimum value of a function f(x,y) given in the question using Gradient Descend Method </a:t>
           </a:r>
           <a:endParaRPr b="0" lang="fi-FI" sz="1600" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1395,7 +1392,7 @@
   </sheetPr>
   <dimension ref="A7:P20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -1643,14 +1640,14 @@
   </sheetPr>
   <dimension ref="F2:H119"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="8.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="11" width="7.07"/>
   </cols>
   <sheetData>
@@ -1659,7 +1656,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="12"/>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1678,7 +1675,7 @@
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
